--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H2">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>14.91561933333333</v>
+        <v>0.3939839999999999</v>
       </c>
       <c r="N2">
-        <v>44.746858</v>
+        <v>1.181952</v>
       </c>
       <c r="O2">
-        <v>0.9776685906860466</v>
+        <v>0.5362668594039028</v>
       </c>
       <c r="P2">
-        <v>0.9776685906860467</v>
+        <v>0.5362668594039028</v>
       </c>
       <c r="Q2">
-        <v>698.9237225465588</v>
+        <v>0.0163700352</v>
       </c>
       <c r="R2">
-        <v>6290.31350291903</v>
+        <v>0.1473303168</v>
       </c>
       <c r="S2">
-        <v>0.1387367754188612</v>
+        <v>7.862574051587646E-05</v>
       </c>
       <c r="T2">
-        <v>0.1387367754188613</v>
+        <v>7.862574051587646E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H3">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.022085</v>
       </c>
       <c r="O3">
-        <v>0.02233140931395335</v>
+        <v>0.4637331405960971</v>
       </c>
       <c r="P3">
-        <v>0.02233140931395336</v>
+        <v>0.4637331405960971</v>
       </c>
       <c r="Q3">
-        <v>15.964460632275</v>
+        <v>0.01415587725</v>
       </c>
       <c r="R3">
-        <v>143.680145690475</v>
+        <v>0.12740289525</v>
       </c>
       <c r="S3">
-        <v>0.00316895494883656</v>
+        <v>6.799107746775639E-05</v>
       </c>
       <c r="T3">
-        <v>0.003168954948836561</v>
+        <v>6.799107746775639E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>849.531647</v>
       </c>
       <c r="I4">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J4">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>14.91561933333333</v>
+        <v>0.3939839999999999</v>
       </c>
       <c r="N4">
-        <v>44.746858</v>
+        <v>1.181952</v>
       </c>
       <c r="O4">
-        <v>0.9776685906860466</v>
+        <v>0.5362668594039028</v>
       </c>
       <c r="P4">
-        <v>0.9776685906860467</v>
+        <v>0.5362668594039028</v>
       </c>
       <c r="Q4">
-        <v>4223.763552757236</v>
+        <v>111.567292137216</v>
       </c>
       <c r="R4">
-        <v>38013.87197481513</v>
+        <v>1004.105629234944</v>
       </c>
       <c r="S4">
-        <v>0.8384195821915549</v>
+        <v>0.5358608490737838</v>
       </c>
       <c r="T4">
-        <v>0.8384195821915551</v>
+        <v>0.5358608490737838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J5">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,10 +744,10 @@
         <v>1.022085</v>
       </c>
       <c r="O5">
-        <v>0.02233140931395335</v>
+        <v>0.4637331405960971</v>
       </c>
       <c r="P5">
-        <v>0.02233140931395336</v>
+        <v>0.4637331405960971</v>
       </c>
       <c r="Q5">
         <v>96.47706149155501</v>
@@ -756,10 +756,10 @@
         <v>868.2935534239951</v>
       </c>
       <c r="S5">
-        <v>0.01915075419740657</v>
+        <v>0.4633820459084451</v>
       </c>
       <c r="T5">
-        <v>0.01915075419740657</v>
+        <v>0.4633820459084451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>0.519022</v>
       </c>
       <c r="I6">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J6">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>14.91561933333333</v>
+        <v>0.3939839999999999</v>
       </c>
       <c r="N6">
-        <v>44.746858</v>
+        <v>1.181952</v>
       </c>
       <c r="O6">
-        <v>0.9776685906860466</v>
+        <v>0.5362668594039028</v>
       </c>
       <c r="P6">
-        <v>0.9776685906860467</v>
+        <v>0.5362668594039028</v>
       </c>
       <c r="Q6">
-        <v>2.580511525875111</v>
+        <v>0.06816212121599999</v>
       </c>
       <c r="R6">
-        <v>23.224603732876</v>
+        <v>0.613459090944</v>
       </c>
       <c r="S6">
-        <v>0.0005122330756304658</v>
+        <v>0.0003273845896031387</v>
       </c>
       <c r="T6">
-        <v>0.0005122330756304659</v>
+        <v>0.0003273845896031386</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.519022</v>
       </c>
       <c r="I7">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J7">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>1.022085</v>
       </c>
       <c r="O7">
-        <v>0.02233140931395335</v>
+        <v>0.4637331405960971</v>
       </c>
       <c r="P7">
-        <v>0.02233140931395336</v>
+        <v>0.4637331405960971</v>
       </c>
       <c r="Q7">
         <v>0.05894273343</v>
@@ -880,10 +880,10 @@
         <v>0.53048460087</v>
       </c>
       <c r="S7">
-        <v>1.170016771022816E-05</v>
+        <v>0.0002831036101842749</v>
       </c>
       <c r="T7">
-        <v>1.170016771022816E-05</v>
+        <v>0.0002831036101842748</v>
       </c>
     </row>
   </sheetData>
